--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3483455.72351857</v>
+        <v>3488394.986367602</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415338.4371549258</v>
+        <v>402678.240224498</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>330.9580493442704</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>164.1376246349966</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>118.9621335895197</v>
       </c>
       <c r="U4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.90568944469409</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>320.797539652425</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>71.64540509163497</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.4356141147665</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>196.9795473566486</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>139.055150479118</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>183.1796758467005</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.21532344290796</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.32381826160564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>60.2557483686285</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>133.9766879784596</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>55.36835208244255</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>66.14085215535448</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>271.7818641996884</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249362</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>548.6555185181858</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>548.6555185181858</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>541.7100177689823</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2531.353510578832</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2312.718843550895</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2058.957058188986</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="3">
@@ -4418,7 +4418,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2660.880717841764</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2484.703230155934</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="T5" t="n">
-        <v>2484.703230155934</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="U5" t="n">
-        <v>2484.703230155934</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V5" t="n">
-        <v>2484.703230155934</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W5" t="n">
-        <v>2131.93457488582</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>2131.93457488582</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>884.2894331389248</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>526.0237345321743</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>140.2354819339301</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5038,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5074,13 +5074,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
         <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>463.2137177573976</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>783.5490372870994</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N12" t="n">
         <v>1128.069692924717</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355.6416303362487</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1188.871927365538</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1188.871927365538</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>899.7432885790962</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>645.0588003732094</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>355.6416303362487</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>355.6416303362487</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y13" t="n">
-        <v>355.6416303362487</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="14">
@@ -5305,7 +5305,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5469,13 +5469,13 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028587</v>
@@ -5500,34 +5500,34 @@
         <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5597,10 +5597,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1009.893253135416</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
         <v>1778.261399527878</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028589</v>
@@ -5679,7 +5679,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.886294955175</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>385.5899330013841</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5773,25 +5773,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>273.72523663794</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028589</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>909.3712637033474</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>619.9540936663868</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>391.9645427683695</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.1719636248394</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,22 +6056,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
         <v>1288.32563221405</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>420.034083581939</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6250,22 +6250,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6293,31 +6293,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>611.2578361750502</v>
       </c>
       <c r="L27" t="n">
-        <v>904.3916683255102</v>
+        <v>841.2209420433994</v>
       </c>
       <c r="M27" t="n">
-        <v>1672.759814717972</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N27" t="n">
-        <v>2374.820091292176</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047986</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>583.2726413366781</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>583.2726413366781</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>583.2726413366781</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
         <v>779.0639759471194</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>985.713685310448</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>764.9211061669179</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047986</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.107328986838</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1432.107328986838</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1432.107328986838</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.107328986838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,19 +7004,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047986</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7356,25 +7356,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324578</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954972</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,7 +7493,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
         <v>1122.004430061687</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7672,13 +7672,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,31 +7715,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.339749591389</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N45" t="n">
-        <v>2246.75132785554</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>44.17985890344589</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9412626269546251</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>40.7768297028193</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>14.74113413690279</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.6166567390293</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>84.59001010593049</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>165.4539070204086</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>118.1609553453684</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>91.06561056412662</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>155.4067089030348</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>14.74113413690264</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="10">
@@ -26325,13 +26325,13 @@
         <v>664749.4015541043</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.4015541045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541048</v>
@@ -26343,16 +26343,16 @@
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="M2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="N2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541046</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758287</v>
+        <v>787.7936905757877</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757948</v>
+        <v>787.7936905758011</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758064</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905757878</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758063</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758286</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871667</v>
@@ -26490,25 +26490,25 @@
         <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739319</v>
+        <v>-114000.5920739318</v>
       </c>
       <c r="C6" t="n">
         <v>475967.2871406127</v>
@@ -26530,40 +26530,40 @@
         <v>475967.2871406128</v>
       </c>
       <c r="E6" t="n">
-        <v>45839.65417819378</v>
+        <v>46716.7863119433</v>
       </c>
       <c r="F6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888398</v>
       </c>
       <c r="G6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="H6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888399</v>
       </c>
       <c r="I6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="J6" t="n">
-        <v>394576.4714624976</v>
+        <v>395453.603596247</v>
       </c>
       <c r="K6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="L6" t="n">
-        <v>570999.6906550904</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="M6" t="n">
-        <v>436198.6754212534</v>
+        <v>437075.8075550025</v>
       </c>
       <c r="N6" t="n">
-        <v>570999.6906550906</v>
+        <v>571876.8227888404</v>
       </c>
       <c r="O6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.8227888404</v>
       </c>
       <c r="P6" t="n">
-        <v>570999.6906550905</v>
+        <v>571876.82278884</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,19 +26752,19 @@
         <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541004</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26810,19 +26810,19 @@
         <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="J4" t="n">
-        <v>1215.213643253573</v>
-      </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>82.82612067652457</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.27808817397494</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>106.0729718685646</v>
       </c>
       <c r="U4" t="n">
-        <v>131.0703856053966</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>18.57271313011762</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.9152527805797</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>335.2306406500765</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29286,16 +29286,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.607718096583367e-12</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31381,7 +31381,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31846,13 +31846,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>10.78379835446987</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855527</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,19 +32247,19 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S17" t="n">
         <v>76.06970478104651</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32320,10 +32320,10 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>106.5672573837435</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32715,19 +32715,19 @@
         <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304423</v>
       </c>
       <c r="M23" t="n">
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>212.6272478467025</v>
+        <v>212.6272478467029</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,19 +32958,19 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104651</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>224.6080631359238</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>361.151132259178</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33195,16 +33195,16 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
@@ -33216,7 +33216,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508798</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33344,10 +33344,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33356,7 +33356,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,13 +33368,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104651</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>141.3402618185952</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>380.6314029223777</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>129.3623873097335</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>243.0697638780549</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>358.7844606146901</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178378</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>338.8532229073285</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>536.198277674684</v>
+        <v>536.1982776746845</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36606,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>351.2318611741434</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>709.1517945193982</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36843,19 +36843,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056037</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349813</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>489.3409240788154</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>704.2024327503593</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>380.6284621420186</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
